--- a/Excel/Client_SkillCanvasConfig.xlsx
+++ b/Excel/Client_SkillCanvasConfig.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23318"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23324"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27CFE1A0-7F4E-4F95-9AB3-DC3F85885E4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0126988-6F92-4CAB-9F3E-B4D023F6C7B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="10950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="4590" windowWidth="21600" windowHeight="10950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -482,7 +482,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -564,7 +564,7 @@
         <v>8</v>
       </c>
       <c r="E7" s="5">
-        <v>104941733478444</v>
+        <v>104953949650975</v>
       </c>
       <c r="F7" s="1">
         <v>10002</v>

--- a/Excel/Client_SkillCanvasConfig.xlsx
+++ b/Excel/Client_SkillCanvasConfig.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0126988-6F92-4CAB-9F3E-B4D023F6C7B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19327C27-8532-48BF-AD7A-96956D7984C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4590" windowWidth="21600" windowHeight="10950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -129,7 +129,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -141,6 +141,7 @@
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -482,7 +483,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -549,8 +550,8 @@
       <c r="D6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="5">
-        <v>104925744136226</v>
+      <c r="E6" s="7">
+        <v>104959494520863</v>
       </c>
       <c r="F6" s="1">
         <v>10001</v>
@@ -564,7 +565,7 @@
         <v>8</v>
       </c>
       <c r="E7" s="5">
-        <v>104953949650975</v>
+        <v>104959496486958</v>
       </c>
       <c r="F7" s="1">
         <v>10002</v>

--- a/Excel/Client_SkillCanvasConfig.xlsx
+++ b/Excel/Client_SkillCanvasConfig.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19327C27-8532-48BF-AD7A-96956D7984C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB625C42-3531-4252-A47C-44F0AEC11CD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -483,7 +483,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -551,7 +551,7 @@
         <v>7</v>
       </c>
       <c r="E6" s="7">
-        <v>104959494520863</v>
+        <v>104965926289429</v>
       </c>
       <c r="F6" s="1">
         <v>10001</v>
